--- a/paper/charts.xlsx
+++ b/paper/charts.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18960" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Skyline" sheetId="1" r:id="rId1"/>
+    <sheet name="Skyline_chart" sheetId="2" r:id="rId1"/>
+    <sheet name="Skyline" sheetId="1" r:id="rId2"/>
+    <sheet name="Compatibility_chart" sheetId="4" r:id="rId3"/>
+    <sheet name="Compatibility" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,10 +34,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,13 +82,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -92,9 +125,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0934022137939564"/>
+          <c:x val="0.123017975008275"/>
           <c:y val="0.0340723453908985"/>
-          <c:w val="0.861979737807643"/>
+          <c:w val="0.83236403953632"/>
           <c:h val="0.751542902187155"/>
         </c:manualLayout>
       </c:layout>
@@ -334,11 +367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141341512"/>
-        <c:axId val="-2141344936"/>
+        <c:axId val="2118700504"/>
+        <c:axId val="2118705784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141341512"/>
+        <c:axId val="2118700504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,18 +416,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141344936"/>
+        <c:crossAx val="2118705784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141344936"/>
+        <c:axId val="2118705784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -418,8 +457,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00123490126561405"/>
-              <c:y val="0.356607570450169"/>
+              <c:x val="0.00123488329006209"/>
+              <c:y val="0.308728710305934"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -441,7 +480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141341512"/>
+        <c:crossAx val="2118700504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -452,10 +491,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.799920847590386"/>
-          <c:y val="0.0295765180371947"/>
-          <c:w val="0.153550315372882"/>
-          <c:h val="0.16803952791416"/>
+          <c:x val="0.762901125736444"/>
+          <c:y val="0.0121660780352219"/>
+          <c:w val="0.187608399165209"/>
+          <c:h val="0.196331463764465"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -482,33 +521,590 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compatibility!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compatibility!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compatibility!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compatibility!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compatibility!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compatibility!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compatibility!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compatibility!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compatibility!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compatibility!$F$1:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2058233144"/>
+        <c:axId val="-2054341560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2058233144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2054341560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2054341560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Widgets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2058233144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>106006</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8576519" cy="5835570"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -521,7 +1117,34 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8576519" cy="5835570"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -849,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -972,8 +1595,181 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/paper/charts.xlsx
+++ b/paper/charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18960" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="18920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Skyline_chart" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Skyline</t>
   </si>
   <si>
     <t>Prunable</t>
+  </si>
+  <si>
+    <t>Surface</t>
   </si>
 </sst>
 </file>
@@ -150,9 +153,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="47625">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -173,44 +174,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Skyline!$A$2:$A$13</c:f>
+              <c:f>Skyline!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -218,26 +234,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Skyline!$B$2:$B$13</c:f>
+              <c:f>Skyline!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -275,44 +291,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Skyline!$A$2:$A$13</c:f>
+              <c:f>Skyline!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -320,39 +351,167 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Skyline!$C$2:$C$13</c:f>
+              <c:f>Skyline!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Skyline!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Surface</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Skyline!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Skyline!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,12 +646,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.762901125736444"/>
-          <c:y val="0.0121660780352219"/>
+          <c:y val="0.0469870124083851"/>
           <c:w val="0.187608399165209"/>
           <c:h val="0.196331463764465"/>
         </c:manualLayout>
@@ -1074,7 +1237,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1086,7 +1249,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="185" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1470,23 +1633,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1496,101 +1662,159 @@
       <c r="C2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
